--- a/마포구청 개발.디자인 진행 일정 및 내용_20210406_ver2.0.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210406_ver2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\1. T아카데미\26. 외부 제휴\6. Dcamp\프로그램 운영\2. 운영 내용\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user15\Gnoss-song\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -538,8 +538,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1291,20 +1291,89 @@
     <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1315,13 +1384,172 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1332,234 +1560,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1843,11 +1843,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y61" sqref="Y61"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.125" style="2" customWidth="1"/>
     <col min="2" max="4" width="9" style="2"/>
@@ -1856,14 +1856,14 @@
     <col min="34" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:33" ht="17.25" thickBot="1"/>
-    <row r="3" spans="2:33">
-      <c r="B3" s="85" t="s">
+    <row r="2" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B3" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
@@ -1945,15 +1945,15 @@
       <c r="AF3" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="108" t="s">
+      <c r="AG3" s="60" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B4" s="87"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+    <row r="4" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="93"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
       <c r="F4" s="52">
         <v>44256</v>
       </c>
@@ -2017,41 +2017,41 @@
       <c r="Z4" s="53">
         <v>44276</v>
       </c>
-      <c r="AA4" s="109">
+      <c r="AA4" s="61">
         <v>44277</v>
       </c>
-      <c r="AB4" s="109">
+      <c r="AB4" s="61">
         <v>44278</v>
       </c>
-      <c r="AC4" s="109">
+      <c r="AC4" s="61">
         <v>44279</v>
       </c>
-      <c r="AD4" s="109">
+      <c r="AD4" s="61">
         <v>44280</v>
       </c>
-      <c r="AE4" s="109">
+      <c r="AE4" s="61">
         <v>44281</v>
       </c>
       <c r="AF4" s="53">
         <v>44282</v>
       </c>
-      <c r="AG4" s="110">
+      <c r="AG4" s="62">
         <v>44283</v>
       </c>
     </row>
-    <row r="5" spans="2:33" ht="55.5" hidden="1" customHeight="1">
-      <c r="B5" s="89" t="s">
+    <row r="5" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="101" t="s">
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="102"/>
+      <c r="G5" s="99"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
       <c r="J5" s="38"/>
@@ -2060,40 +2060,40 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
-      <c r="P5" s="101" t="s">
+      <c r="P5" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="102"/>
+      <c r="Q5" s="99"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="101" t="s">
+      <c r="T5" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="102"/>
+      <c r="U5" s="99"/>
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
-      <c r="X5" s="111" t="s">
+      <c r="X5" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" s="112"/>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="112"/>
-      <c r="AB5" s="113"/>
+      <c r="Y5" s="136"/>
+      <c r="Z5" s="136"/>
+      <c r="AA5" s="136"/>
+      <c r="AB5" s="137"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
       <c r="AF5" s="36"/>
-      <c r="AG5" s="114"/>
-    </row>
-    <row r="6" spans="2:33" ht="49.5">
-      <c r="B6" s="89"/>
-      <c r="C6" s="107" t="s">
+      <c r="AG5" s="63"/>
+    </row>
+    <row r="6" spans="2:33" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="95"/>
+      <c r="C6" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="80"/>
+      <c r="E6" s="101"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>71</v>
@@ -2136,17 +2136,17 @@
       <c r="AC6" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AD6" s="115" t="s">
+      <c r="AD6" s="64" t="s">
         <v>111</v>
       </c>
       <c r="AE6" s="38"/>
       <c r="AF6" s="38"/>
-      <c r="AG6" s="116"/>
-    </row>
-    <row r="7" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B7" s="89"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="82" t="s">
+      <c r="AG6" s="65"/>
+    </row>
+    <row r="7" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="95"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2193,12 +2193,12 @@
       <c r="AD7" s="38"/>
       <c r="AE7" s="38"/>
       <c r="AF7" s="38"/>
-      <c r="AG7" s="116"/>
-    </row>
-    <row r="8" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B8" s="89"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="83"/>
+      <c r="AG7" s="65"/>
+    </row>
+    <row r="8" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="95"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="103"/>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2243,12 +2243,12 @@
       <c r="AD8" s="38"/>
       <c r="AE8" s="38"/>
       <c r="AF8" s="38"/>
-      <c r="AG8" s="116"/>
-    </row>
-    <row r="9" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B9" s="89"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="83"/>
+      <c r="AG8" s="65"/>
+    </row>
+    <row r="9" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="95"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="103"/>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2293,12 +2293,12 @@
       <c r="AD9" s="38"/>
       <c r="AE9" s="38"/>
       <c r="AF9" s="38"/>
-      <c r="AG9" s="116"/>
-    </row>
-    <row r="10" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B10" s="89"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="83"/>
+      <c r="AG9" s="65"/>
+    </row>
+    <row r="10" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="95"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="103"/>
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2331,12 +2331,12 @@
       <c r="AD10" s="38"/>
       <c r="AE10" s="38"/>
       <c r="AF10" s="38"/>
-      <c r="AG10" s="116"/>
-    </row>
-    <row r="11" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B11" s="89"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="83"/>
+      <c r="AG10" s="65"/>
+    </row>
+    <row r="11" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="95"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="103"/>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="68" t="s">
+      <c r="V11" s="122" t="s">
         <v>57</v>
       </c>
       <c r="W11" s="38"/>
@@ -2369,12 +2369,12 @@
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
-      <c r="AG11" s="116"/>
-    </row>
-    <row r="12" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B12" s="89"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="83"/>
+      <c r="AG11" s="65"/>
+    </row>
+    <row r="12" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="95"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="103"/>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="69"/>
+      <c r="V12" s="144"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -2405,12 +2405,12 @@
       <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
       <c r="AF12" s="38"/>
-      <c r="AG12" s="116"/>
-    </row>
-    <row r="13" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B13" s="89"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="83"/>
+      <c r="AG12" s="65"/>
+    </row>
+    <row r="13" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="95"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="103"/>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2430,7 @@
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="69"/>
+      <c r="V13" s="144"/>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -2441,12 +2441,12 @@
       <c r="AD13" s="38"/>
       <c r="AE13" s="38"/>
       <c r="AF13" s="38"/>
-      <c r="AG13" s="116"/>
-    </row>
-    <row r="14" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B14" s="89"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="83"/>
+      <c r="AG13" s="65"/>
+    </row>
+    <row r="14" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="95"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="103"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2466,7 +2466,7 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="69"/>
+      <c r="V14" s="144"/>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -2477,12 +2477,12 @@
       <c r="AD14" s="38"/>
       <c r="AE14" s="38"/>
       <c r="AF14" s="38"/>
-      <c r="AG14" s="116"/>
-    </row>
-    <row r="15" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B15" s="90"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="84"/>
+      <c r="AG14" s="65"/>
+    </row>
+    <row r="15" spans="2:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="96"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="13" t="s">
         <v>11</v>
       </c>
@@ -2502,7 +2502,7 @@
       <c r="S15" s="43"/>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
-      <c r="V15" s="70"/>
+      <c r="V15" s="145"/>
       <c r="W15" s="43"/>
       <c r="X15" s="43"/>
       <c r="Y15" s="43"/>
@@ -2513,65 +2513,65 @@
       <c r="AD15" s="43"/>
       <c r="AE15" s="43"/>
       <c r="AF15" s="43"/>
-      <c r="AG15" s="117"/>
-    </row>
-    <row r="16" spans="2:33" ht="55.5" hidden="1" customHeight="1">
-      <c r="B16" s="74" t="s">
+      <c r="AG15" s="66"/>
+    </row>
+    <row r="16" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="77" t="s">
+      <c r="C16" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="101" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="102"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="104"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="112"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="105" t="s">
+      <c r="O16" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="71" t="s">
+      <c r="P16" s="114"/>
+      <c r="Q16" s="147" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="111" t="s">
+      <c r="R16" s="148"/>
+      <c r="S16" s="148"/>
+      <c r="T16" s="148"/>
+      <c r="U16" s="148"/>
+      <c r="V16" s="148"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="135" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="118"/>
-      <c r="Z16" s="118"/>
-      <c r="AA16" s="118"/>
-      <c r="AB16" s="118"/>
-      <c r="AC16" s="118"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="111" t="s">
+      <c r="Y16" s="142"/>
+      <c r="Z16" s="142"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
+      <c r="AD16" s="146"/>
+      <c r="AE16" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="118"/>
-      <c r="AG16" s="120"/>
-    </row>
-    <row r="17" spans="2:33" ht="66">
-      <c r="B17" s="75"/>
-      <c r="C17" s="107" t="s">
+      <c r="AF16" s="142"/>
+      <c r="AG16" s="143"/>
+    </row>
+    <row r="17" spans="2:33" ht="66" x14ac:dyDescent="0.3">
+      <c r="B17" s="106"/>
+      <c r="C17" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="80"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38" t="s">
         <v>71</v>
@@ -2623,12 +2623,12 @@
         <v>113</v>
       </c>
       <c r="AF17" s="38"/>
-      <c r="AG17" s="116"/>
-    </row>
-    <row r="18" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B18" s="75"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="82" t="s">
+      <c r="AG17" s="65"/>
+    </row>
+    <row r="18" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="106"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2681,12 +2681,12 @@
       <c r="AD18" s="38"/>
       <c r="AE18" s="38"/>
       <c r="AF18" s="38"/>
-      <c r="AG18" s="116"/>
-    </row>
-    <row r="19" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B19" s="75"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="83"/>
+      <c r="AG18" s="65"/>
+    </row>
+    <row r="19" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="106"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="103"/>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2737,12 +2737,12 @@
       <c r="AD19" s="38"/>
       <c r="AE19" s="38"/>
       <c r="AF19" s="38"/>
-      <c r="AG19" s="116"/>
-    </row>
-    <row r="20" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B20" s="75"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="83"/>
+      <c r="AG19" s="65"/>
+    </row>
+    <row r="20" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="106"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="103"/>
       <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2793,12 +2793,12 @@
       <c r="AD20" s="38"/>
       <c r="AE20" s="38"/>
       <c r="AF20" s="38"/>
-      <c r="AG20" s="116"/>
-    </row>
-    <row r="21" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B21" s="75"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="83"/>
+      <c r="AG20" s="65"/>
+    </row>
+    <row r="21" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="106"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="103"/>
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2837,12 +2837,12 @@
       <c r="AD21" s="38"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="38"/>
-      <c r="AG21" s="116"/>
-    </row>
-    <row r="22" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B22" s="75"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="83"/>
+      <c r="AG21" s="65"/>
+    </row>
+    <row r="22" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="106"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="103"/>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2866,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="68" t="s">
+      <c r="V22" s="122" t="s">
         <v>57</v>
       </c>
       <c r="W22" s="38"/>
@@ -2881,12 +2881,12 @@
       <c r="AD22" s="38"/>
       <c r="AE22" s="38"/>
       <c r="AF22" s="38"/>
-      <c r="AG22" s="116"/>
-    </row>
-    <row r="23" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B23" s="75"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="83"/>
+      <c r="AG22" s="65"/>
+    </row>
+    <row r="23" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="106"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="103"/>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2910,7 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="69"/>
+      <c r="V23" s="144"/>
       <c r="W23" s="38"/>
       <c r="X23" s="59" t="s">
         <v>53</v>
@@ -2923,12 +2923,12 @@
       <c r="AD23" s="38"/>
       <c r="AE23" s="38"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="116"/>
-    </row>
-    <row r="24" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B24" s="75"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="83"/>
+      <c r="AG23" s="65"/>
+    </row>
+    <row r="24" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="106"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="103"/>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="69"/>
+      <c r="V24" s="144"/>
       <c r="W24" s="38"/>
       <c r="X24" s="59" t="s">
         <v>54</v>
@@ -2965,12 +2965,12 @@
       <c r="AD24" s="38"/>
       <c r="AE24" s="38"/>
       <c r="AF24" s="38"/>
-      <c r="AG24" s="116"/>
-    </row>
-    <row r="25" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B25" s="75"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="83"/>
+      <c r="AG24" s="65"/>
+    </row>
+    <row r="25" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="106"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +2994,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="69"/>
+      <c r="V25" s="144"/>
       <c r="W25" s="38"/>
       <c r="X25" s="59" t="s">
         <v>103</v>
@@ -3007,12 +3007,12 @@
       <c r="AD25" s="38"/>
       <c r="AE25" s="38"/>
       <c r="AF25" s="38"/>
-      <c r="AG25" s="116"/>
-    </row>
-    <row r="26" spans="2:33" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B26" s="76"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="84"/>
+      <c r="AG25" s="65"/>
+    </row>
+    <row r="26" spans="2:33" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="107"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="104"/>
       <c r="E26" s="13" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3036,7 @@
       <c r="S26" s="43"/>
       <c r="T26" s="43"/>
       <c r="U26" s="43"/>
-      <c r="V26" s="70"/>
+      <c r="V26" s="145"/>
       <c r="W26" s="43"/>
       <c r="X26" s="47" t="s">
         <v>49</v>
@@ -3049,16 +3049,16 @@
       <c r="AD26" s="43"/>
       <c r="AE26" s="43"/>
       <c r="AF26" s="43"/>
-      <c r="AG26" s="117"/>
-    </row>
-    <row r="28" spans="2:33" ht="17.25" thickBot="1"/>
-    <row r="29" spans="2:33">
-      <c r="B29" s="85" t="s">
+      <c r="AG26" s="66"/>
+    </row>
+    <row r="28" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B29" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="20" t="s">
         <v>30</v>
       </c>
@@ -3144,11 +3144,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B30" s="87"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
+    <row r="30" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="93"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="94"/>
+      <c r="E30" s="94"/>
       <c r="F30" s="18">
         <v>44284</v>
       </c>
@@ -3234,28 +3234,28 @@
         <v>44311</v>
       </c>
     </row>
-    <row r="31" spans="2:33" ht="55.5" hidden="1" customHeight="1">
-      <c r="B31" s="96" t="s">
+    <row r="31" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="64" t="s">
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="118" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="64" t="s">
+      <c r="G31" s="119"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="119"/>
+      <c r="J31" s="119"/>
+      <c r="K31" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="64"/>
-      <c r="N31" s="64"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="118"/>
+      <c r="N31" s="118"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="22"/>
@@ -3276,15 +3276,15 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="35"/>
     </row>
-    <row r="32" spans="2:33" ht="66">
-      <c r="B32" s="97"/>
-      <c r="C32" s="80" t="s">
+    <row r="32" spans="2:33" ht="66" x14ac:dyDescent="0.3">
+      <c r="B32" s="116"/>
+      <c r="C32" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="80" t="s">
+      <c r="D32" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="80"/>
+      <c r="E32" s="101"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="37" t="s">
@@ -3297,7 +3297,7 @@
       <c r="K32" s="38"/>
       <c r="L32" s="38"/>
       <c r="M32" s="38"/>
-      <c r="N32" s="123" t="s">
+      <c r="N32" s="69" t="s">
         <v>116</v>
       </c>
       <c r="O32" s="3"/>
@@ -3307,12 +3307,12 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
-      <c r="T32" s="123" t="s">
+      <c r="T32" s="69" t="s">
         <v>29</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="125" t="s">
+      <c r="W32" s="71" t="s">
         <v>120</v>
       </c>
       <c r="X32" s="3"/>
@@ -3320,7 +3320,7 @@
       <c r="Z32" s="3"/>
       <c r="AA32" s="3"/>
       <c r="AB32" s="3"/>
-      <c r="AC32" s="123" t="s">
+      <c r="AC32" s="69" t="s">
         <v>59</v>
       </c>
       <c r="AD32" s="3"/>
@@ -3328,10 +3328,10 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80" t="s">
+    <row r="33" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="116"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3340,14 +3340,14 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="137" t="s">
+      <c r="I33" s="120" t="s">
         <v>61</v>
       </c>
       <c r="J33" s="38"/>
       <c r="K33" s="38"/>
       <c r="L33" s="38"/>
       <c r="M33" s="38"/>
-      <c r="N33" s="126" t="s">
+      <c r="N33" s="72" t="s">
         <v>119</v>
       </c>
       <c r="O33" s="3"/>
@@ -3355,37 +3355,37 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
-      <c r="T33" s="124"/>
+      <c r="T33" s="70"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="124"/>
+      <c r="W33" s="70"/>
       <c r="X33" s="3"/>
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
       <c r="AA33" s="3"/>
       <c r="AB33" s="3"/>
-      <c r="AC33" s="124"/>
+      <c r="AC33" s="70"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
+    <row r="34" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="116"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
       <c r="E34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="138"/>
+      <c r="I34" s="121"/>
       <c r="J34" s="38"/>
       <c r="K34" s="38"/>
       <c r="L34" s="38"/>
       <c r="M34" s="38"/>
-      <c r="N34" s="127" t="s">
+      <c r="N34" s="73" t="s">
         <v>117</v>
       </c>
       <c r="O34" s="3"/>
@@ -3393,37 +3393,37 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
-      <c r="T34" s="124"/>
+      <c r="T34" s="70"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="124"/>
+      <c r="W34" s="70"/>
       <c r="X34" s="3"/>
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
       <c r="AA34" s="3"/>
       <c r="AB34" s="3"/>
-      <c r="AC34" s="124"/>
+      <c r="AC34" s="70"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
       <c r="AF34" s="3"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
+    <row r="35" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="116"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="101"/>
       <c r="E35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="138"/>
+      <c r="I35" s="121"/>
       <c r="J35" s="38"/>
       <c r="K35" s="38"/>
       <c r="L35" s="38"/>
       <c r="M35" s="38"/>
-      <c r="N35" s="127" t="s">
+      <c r="N35" s="73" t="s">
         <v>118</v>
       </c>
       <c r="O35" s="3"/>
@@ -3431,25 +3431,25 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
-      <c r="T35" s="124"/>
+      <c r="T35" s="70"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="124"/>
+      <c r="W35" s="70"/>
       <c r="X35" s="3"/>
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
-      <c r="AC35" s="124"/>
+      <c r="AC35" s="70"/>
       <c r="AD35" s="3"/>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+    <row r="36" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="116"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
       <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
@@ -3476,23 +3476,23 @@
       <c r="Z36" s="3"/>
       <c r="AA36" s="3"/>
       <c r="AB36" s="3"/>
-      <c r="AC36" s="124"/>
+      <c r="AC36" s="70"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="3"/>
       <c r="AF36" s="3"/>
       <c r="AG36" s="12"/>
     </row>
-    <row r="37" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+    <row r="37" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="116"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="101"/>
       <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="68" t="s">
+      <c r="I37" s="122" t="s">
         <v>21</v>
       </c>
       <c r="J37" s="38"/>
@@ -3514,23 +3514,23 @@
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
       <c r="AB37" s="3"/>
-      <c r="AC37" s="124"/>
+      <c r="AC37" s="70"/>
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
       <c r="AG37" s="12"/>
     </row>
-    <row r="38" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+    <row r="38" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="116"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="101"/>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="139"/>
+      <c r="I38" s="123"/>
       <c r="J38" s="38"/>
       <c r="K38" s="38"/>
       <c r="L38" s="38"/>
@@ -3556,17 +3556,17 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="12"/>
     </row>
-    <row r="39" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
+    <row r="39" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="116"/>
+      <c r="C39" s="101"/>
+      <c r="D39" s="101"/>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="139"/>
+      <c r="I39" s="123"/>
       <c r="J39" s="38"/>
       <c r="K39" s="38"/>
       <c r="L39" s="38"/>
@@ -3592,17 +3592,17 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="2:33" ht="21.75" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+    <row r="40" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="116"/>
+      <c r="C40" s="101"/>
+      <c r="D40" s="101"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="139"/>
+      <c r="I40" s="123"/>
       <c r="J40" s="38"/>
       <c r="K40" s="38"/>
       <c r="L40" s="38"/>
@@ -3628,21 +3628,21 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="12"/>
     </row>
-    <row r="41" spans="2:33" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B41" s="98"/>
-      <c r="C41" s="82"/>
-      <c r="D41" s="82"/>
+    <row r="41" spans="2:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="117"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
       <c r="E41" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="140"/>
-      <c r="G41" s="140"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="141"/>
-      <c r="J41" s="140"/>
-      <c r="K41" s="140"/>
-      <c r="L41" s="140"/>
-      <c r="M41" s="140"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
       <c r="N41" s="27"/>
       <c r="O41" s="27"/>
       <c r="P41" s="27"/>
@@ -3664,68 +3664,68 @@
       <c r="AF41" s="27"/>
       <c r="AG41" s="28"/>
     </row>
-    <row r="42" spans="2:33" ht="55.5" hidden="1" customHeight="1">
-      <c r="B42" s="93" t="s">
+    <row r="42" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="142" t="s">
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="91" t="s">
+      <c r="G42" s="134"/>
+      <c r="H42" s="134"/>
+      <c r="I42" s="134"/>
+      <c r="J42" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="92"/>
-      <c r="L42" s="92"/>
-      <c r="M42" s="92"/>
-      <c r="N42" s="92"/>
-      <c r="O42" s="92"/>
-      <c r="P42" s="91" t="s">
+      <c r="K42" s="127"/>
+      <c r="L42" s="127"/>
+      <c r="M42" s="127"/>
+      <c r="N42" s="127"/>
+      <c r="O42" s="127"/>
+      <c r="P42" s="126" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="92"/>
-      <c r="R42" s="92"/>
-      <c r="S42" s="92"/>
-      <c r="T42" s="92"/>
-      <c r="U42" s="92"/>
-      <c r="V42" s="92"/>
+      <c r="Q42" s="127"/>
+      <c r="R42" s="127"/>
+      <c r="S42" s="127"/>
+      <c r="T42" s="127"/>
+      <c r="U42" s="127"/>
+      <c r="V42" s="127"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="60" t="s">
+      <c r="AA42" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="AB42" s="61"/>
-      <c r="AC42" s="61"/>
-      <c r="AD42" s="61"/>
-      <c r="AE42" s="61"/>
-      <c r="AF42" s="61"/>
-      <c r="AG42" s="62"/>
-    </row>
-    <row r="43" spans="2:33" ht="82.5">
-      <c r="B43" s="94"/>
-      <c r="C43" s="80" t="s">
+      <c r="AB42" s="139"/>
+      <c r="AC42" s="139"/>
+      <c r="AD42" s="139"/>
+      <c r="AE42" s="139"/>
+      <c r="AF42" s="139"/>
+      <c r="AG42" s="140"/>
+    </row>
+    <row r="43" spans="2:33" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B43" s="132"/>
+      <c r="C43" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="80" t="s">
+      <c r="D43" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="80"/>
+      <c r="E43" s="101"/>
       <c r="F43" s="39"/>
       <c r="G43" s="50"/>
       <c r="H43" s="38"/>
       <c r="I43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="146" t="s">
+      <c r="J43" s="84" t="s">
         <v>121</v>
       </c>
       <c r="K43" s="38"/>
@@ -3733,7 +3733,7 @@
       <c r="M43" s="38"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="P43" s="149" t="s">
+      <c r="P43" s="87" t="s">
         <v>126</v>
       </c>
       <c r="Q43" s="5" t="s">
@@ -3744,7 +3744,7 @@
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
-      <c r="W43" s="121" t="s">
+      <c r="W43" s="67" t="s">
         <v>125</v>
       </c>
       <c r="X43" s="5" t="s">
@@ -3754,7 +3754,7 @@
       <c r="Z43" s="3"/>
       <c r="AA43" s="7"/>
       <c r="AB43" s="4"/>
-      <c r="AC43" s="123" t="s">
+      <c r="AC43" s="69" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="3"/>
@@ -3762,10 +3762,10 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B44" s="94"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80" t="s">
+    <row r="44" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="132"/>
+      <c r="C44" s="101"/>
+      <c r="D44" s="101" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -3774,10 +3774,10 @@
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="137" t="s">
+      <c r="I44" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="128"/>
+      <c r="J44" s="74"/>
       <c r="K44" s="38"/>
       <c r="L44" s="38"/>
       <c r="M44" s="38"/>
@@ -3796,24 +3796,24 @@
       <c r="Z44" s="3"/>
       <c r="AA44" s="3"/>
       <c r="AB44" s="3"/>
-      <c r="AC44" s="124"/>
+      <c r="AC44" s="70"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
       <c r="AF44" s="3"/>
       <c r="AG44" s="12"/>
     </row>
-    <row r="45" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B45" s="94"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
+    <row r="45" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="132"/>
+      <c r="C45" s="101"/>
+      <c r="D45" s="101"/>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="138"/>
-      <c r="J45" s="128"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="74"/>
       <c r="K45" s="38"/>
       <c r="L45" s="38"/>
       <c r="M45" s="38"/>
@@ -3832,24 +3832,24 @@
       <c r="Z45" s="3"/>
       <c r="AA45" s="3"/>
       <c r="AB45" s="3"/>
-      <c r="AC45" s="124"/>
+      <c r="AC45" s="70"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
       <c r="AF45" s="3"/>
       <c r="AG45" s="12"/>
     </row>
-    <row r="46" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B46" s="94"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+    <row r="46" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="132"/>
+      <c r="C46" s="101"/>
+      <c r="D46" s="101"/>
       <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="138"/>
-      <c r="J46" s="128"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="74"/>
       <c r="K46" s="38"/>
       <c r="L46" s="38"/>
       <c r="M46" s="38"/>
@@ -3868,16 +3868,16 @@
       <c r="Z46" s="3"/>
       <c r="AA46" s="3"/>
       <c r="AB46" s="3"/>
-      <c r="AC46" s="124"/>
+      <c r="AC46" s="70"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
       <c r="AF46" s="3"/>
       <c r="AG46" s="12"/>
     </row>
-    <row r="47" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B47" s="94"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
+    <row r="47" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="132"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3885,7 +3885,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="128"/>
+      <c r="J47" s="74"/>
       <c r="K47" s="38"/>
       <c r="L47" s="38"/>
       <c r="M47" s="38"/>
@@ -3904,26 +3904,26 @@
       <c r="Z47" s="3"/>
       <c r="AA47" s="3"/>
       <c r="AB47" s="3"/>
-      <c r="AC47" s="124"/>
+      <c r="AC47" s="70"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
       <c r="AF47" s="3"/>
       <c r="AG47" s="12"/>
     </row>
-    <row r="48" spans="2:33" ht="22.5" customHeight="1">
-      <c r="B48" s="94"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
+    <row r="48" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="132"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
       <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="143" t="s">
+      <c r="I48" s="128" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="128"/>
+      <c r="J48" s="74"/>
       <c r="K48" s="38"/>
       <c r="L48" s="38"/>
       <c r="M48" s="38"/>
@@ -3942,24 +3942,24 @@
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
       <c r="AB48" s="3"/>
-      <c r="AC48" s="124"/>
+      <c r="AC48" s="70"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
       <c r="AF48" s="3"/>
       <c r="AG48" s="12"/>
     </row>
-    <row r="49" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B49" s="94"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+    <row r="49" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="132"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="144"/>
-      <c r="J49" s="128"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="74"/>
       <c r="K49" s="38"/>
       <c r="L49" s="38"/>
       <c r="M49" s="38"/>
@@ -3984,18 +3984,18 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="12"/>
     </row>
-    <row r="50" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B50" s="94"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
+    <row r="50" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="132"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="144"/>
-      <c r="J50" s="128"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="74"/>
       <c r="K50" s="38"/>
       <c r="L50" s="38"/>
       <c r="M50" s="38"/>
@@ -4020,18 +4020,18 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="12"/>
     </row>
-    <row r="51" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B51" s="94"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
+    <row r="51" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="132"/>
+      <c r="C51" s="101"/>
+      <c r="D51" s="101"/>
       <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="144"/>
-      <c r="J51" s="128"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="74"/>
       <c r="K51" s="38"/>
       <c r="L51" s="38"/>
       <c r="M51" s="38"/>
@@ -4056,18 +4056,18 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="12"/>
     </row>
-    <row r="52" spans="2:40" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B52" s="95"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
+    <row r="52" spans="2:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="133"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
       <c r="E52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="129"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="75"/>
       <c r="K52" s="43"/>
       <c r="L52" s="43"/>
       <c r="M52" s="43"/>
@@ -4092,14 +4092,14 @@
       <c r="AF52" s="13"/>
       <c r="AG52" s="14"/>
     </row>
-    <row r="54" spans="2:40" ht="17.25" thickBot="1"/>
-    <row r="55" spans="2:40">
-      <c r="B55" s="85" t="s">
+    <row r="54" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="55" spans="2:40" x14ac:dyDescent="0.3">
+      <c r="B55" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
       <c r="F55" s="20" t="s">
         <v>30</v>
       </c>
@@ -4206,11 +4206,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="2:40" s="1" customFormat="1" ht="17.25" thickBot="1">
-      <c r="B56" s="87"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
+    <row r="56" spans="2:40" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="93"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="94"/>
+      <c r="E56" s="94"/>
       <c r="F56" s="18">
         <v>44312</v>
       </c>
@@ -4317,15 +4317,15 @@
         <v>44346</v>
       </c>
     </row>
-    <row r="57" spans="2:40" ht="55.5" hidden="1" customHeight="1">
-      <c r="B57" s="88" t="s">
+    <row r="57" spans="2:40" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
       <c r="F57" s="48"/>
       <c r="G57" s="49"/>
       <c r="H57" s="10"/>
@@ -4344,7 +4344,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="131" t="s">
+      <c r="X57" s="77" t="s">
         <v>67</v>
       </c>
       <c r="Y57" s="33"/>
@@ -4353,7 +4353,7 @@
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="11"/>
-      <c r="AE57" s="131" t="s">
+      <c r="AE57" s="77" t="s">
         <v>67</v>
       </c>
       <c r="AF57" s="57"/>
@@ -4362,21 +4362,21 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="10"/>
       <c r="AK57" s="11"/>
-      <c r="AL57" s="65" t="s">
+      <c r="AL57" s="88" t="s">
         <v>67</v>
       </c>
       <c r="AM57" s="57"/>
       <c r="AN57" s="21"/>
     </row>
-    <row r="58" spans="2:40" ht="82.5">
-      <c r="B58" s="89"/>
-      <c r="C58" s="80" t="s">
+    <row r="58" spans="2:40" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B58" s="95"/>
+      <c r="C58" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="80" t="s">
+      <c r="D58" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="80"/>
+      <c r="E58" s="101"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="5" t="s">
@@ -4389,18 +4389,18 @@
       <c r="M58" s="5"/>
       <c r="N58" s="3"/>
       <c r="O58" s="5"/>
-      <c r="P58" s="121" t="s">
+      <c r="P58" s="67" t="s">
         <v>122</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
-      <c r="T58" s="121" t="s">
+      <c r="T58" s="67" t="s">
         <v>123</v>
       </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="132"/>
+      <c r="W58" s="78"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
@@ -4412,17 +4412,17 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
-      <c r="AI58" s="135"/>
+      <c r="AI58" s="81"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="12"/>
-      <c r="AL58" s="66"/>
+      <c r="AL58" s="89"/>
       <c r="AM58" s="29"/>
       <c r="AN58" s="12"/>
     </row>
-    <row r="59" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B59" s="89"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="82" t="s">
+    <row r="59" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="95"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -4438,14 +4438,14 @@
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" s="122"/>
+      <c r="P59" s="68"/>
       <c r="Q59" s="3"/>
       <c r="R59" s="3"/>
       <c r="S59" s="3"/>
-      <c r="T59" s="122"/>
+      <c r="T59" s="68"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="132"/>
+      <c r="W59" s="78"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
@@ -4457,17 +4457,17 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
-      <c r="AI59" s="135"/>
+      <c r="AI59" s="81"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="12"/>
-      <c r="AL59" s="66"/>
+      <c r="AL59" s="89"/>
       <c r="AM59" s="29"/>
       <c r="AN59" s="12"/>
     </row>
-    <row r="60" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B60" s="89"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="83"/>
+    <row r="60" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="95"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="103"/>
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4481,14 +4481,14 @@
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-      <c r="P60" s="122"/>
+      <c r="P60" s="68"/>
       <c r="Q60" s="3"/>
       <c r="R60" s="3"/>
       <c r="S60" s="3"/>
-      <c r="T60" s="122"/>
+      <c r="T60" s="68"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="132"/>
+      <c r="W60" s="78"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
@@ -4500,17 +4500,17 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
-      <c r="AI60" s="135"/>
+      <c r="AI60" s="81"/>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="12"/>
-      <c r="AL60" s="66"/>
+      <c r="AL60" s="89"/>
       <c r="AM60" s="29"/>
       <c r="AN60" s="12"/>
     </row>
-    <row r="61" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B61" s="89"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="83"/>
+    <row r="61" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="95"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="103"/>
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
@@ -4524,14 +4524,14 @@
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-      <c r="P61" s="122"/>
+      <c r="P61" s="68"/>
       <c r="Q61" s="3"/>
       <c r="R61" s="3"/>
       <c r="S61" s="3"/>
-      <c r="T61" s="122"/>
+      <c r="T61" s="68"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="132"/>
+      <c r="W61" s="78"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
@@ -4543,17 +4543,17 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
-      <c r="AI61" s="135"/>
+      <c r="AI61" s="81"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="12"/>
-      <c r="AL61" s="66"/>
+      <c r="AL61" s="89"/>
       <c r="AM61" s="29"/>
       <c r="AN61" s="12"/>
     </row>
-    <row r="62" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B62" s="89"/>
-      <c r="C62" s="80"/>
-      <c r="D62" s="83"/>
+    <row r="62" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="95"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="103"/>
       <c r="E62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4567,14 +4567,14 @@
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-      <c r="P62" s="122"/>
+      <c r="P62" s="68"/>
       <c r="Q62" s="3"/>
       <c r="R62" s="3"/>
       <c r="S62" s="3"/>
-      <c r="T62" s="122"/>
+      <c r="T62" s="68"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="132"/>
+      <c r="W62" s="78"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
@@ -4586,17 +4586,17 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
-      <c r="AI62" s="135"/>
+      <c r="AI62" s="81"/>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="12"/>
-      <c r="AL62" s="66"/>
+      <c r="AL62" s="89"/>
       <c r="AM62" s="29"/>
       <c r="AN62" s="12"/>
     </row>
-    <row r="63" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B63" s="89"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="83"/>
+    <row r="63" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="95"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="103"/>
       <c r="E63" s="3" t="s">
         <v>7</v>
       </c>
@@ -4610,14 +4610,14 @@
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-      <c r="P63" s="122"/>
+      <c r="P63" s="68"/>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
       <c r="S63" s="3"/>
-      <c r="T63" s="122"/>
+      <c r="T63" s="68"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="132"/>
+      <c r="W63" s="78"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
@@ -4629,17 +4629,17 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
-      <c r="AI63" s="135"/>
+      <c r="AI63" s="81"/>
       <c r="AJ63" s="3"/>
       <c r="AK63" s="12"/>
-      <c r="AL63" s="66"/>
+      <c r="AL63" s="89"/>
       <c r="AM63" s="29"/>
       <c r="AN63" s="12"/>
     </row>
-    <row r="64" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B64" s="89"/>
-      <c r="C64" s="80"/>
-      <c r="D64" s="83"/>
+    <row r="64" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="95"/>
+      <c r="C64" s="101"/>
+      <c r="D64" s="103"/>
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
@@ -4653,14 +4653,14 @@
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-      <c r="P64" s="122"/>
+      <c r="P64" s="68"/>
       <c r="Q64" s="3"/>
       <c r="R64" s="3"/>
       <c r="S64" s="3"/>
-      <c r="T64" s="122"/>
+      <c r="T64" s="68"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="132"/>
+      <c r="W64" s="78"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
@@ -4672,17 +4672,17 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
-      <c r="AI64" s="135"/>
+      <c r="AI64" s="81"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="12"/>
-      <c r="AL64" s="66"/>
+      <c r="AL64" s="89"/>
       <c r="AM64" s="29"/>
       <c r="AN64" s="12"/>
     </row>
-    <row r="65" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B65" s="89"/>
-      <c r="C65" s="80"/>
-      <c r="D65" s="83"/>
+    <row r="65" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="95"/>
+      <c r="C65" s="101"/>
+      <c r="D65" s="103"/>
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
@@ -4696,14 +4696,14 @@
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-      <c r="P65" s="122"/>
+      <c r="P65" s="68"/>
       <c r="Q65" s="3"/>
       <c r="R65" s="3"/>
       <c r="S65" s="3"/>
-      <c r="T65" s="122"/>
+      <c r="T65" s="68"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="132"/>
+      <c r="W65" s="78"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
@@ -4715,17 +4715,17 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
-      <c r="AI65" s="135"/>
+      <c r="AI65" s="81"/>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="12"/>
-      <c r="AL65" s="66"/>
+      <c r="AL65" s="89"/>
       <c r="AM65" s="29"/>
       <c r="AN65" s="12"/>
     </row>
-    <row r="66" spans="2:40" ht="21.75" customHeight="1">
-      <c r="B66" s="89"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="83"/>
+    <row r="66" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="95"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="103"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4739,14 +4739,14 @@
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-      <c r="P66" s="122"/>
+      <c r="P66" s="68"/>
       <c r="Q66" s="3"/>
       <c r="R66" s="3"/>
       <c r="S66" s="3"/>
-      <c r="T66" s="122"/>
+      <c r="T66" s="68"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="132"/>
+      <c r="W66" s="78"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
@@ -4758,17 +4758,17 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
-      <c r="AI66" s="135"/>
+      <c r="AI66" s="81"/>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="12"/>
-      <c r="AL66" s="66"/>
+      <c r="AL66" s="89"/>
       <c r="AM66" s="29"/>
       <c r="AN66" s="12"/>
     </row>
-    <row r="67" spans="2:40" ht="21.75" customHeight="1" thickBot="1">
-      <c r="B67" s="90"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="84"/>
+    <row r="67" spans="2:40" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="96"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="104"/>
       <c r="E67" s="13" t="s">
         <v>11</v>
       </c>
@@ -4782,14 +4782,14 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
-      <c r="P67" s="130"/>
+      <c r="P67" s="76"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
-      <c r="T67" s="130"/>
+      <c r="T67" s="76"/>
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
-      <c r="W67" s="133"/>
+      <c r="W67" s="79"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -4801,42 +4801,42 @@
       <c r="AF67" s="13"/>
       <c r="AG67" s="13"/>
       <c r="AH67" s="13"/>
-      <c r="AI67" s="136"/>
+      <c r="AI67" s="82"/>
       <c r="AJ67" s="13"/>
       <c r="AK67" s="14"/>
-      <c r="AL67" s="66"/>
+      <c r="AL67" s="89"/>
       <c r="AM67" s="30"/>
       <c r="AN67" s="14"/>
     </row>
-    <row r="68" spans="2:40" ht="55.5" hidden="1" customHeight="1">
-      <c r="B68" s="74" t="s">
+    <row r="68" spans="2:40" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="77" t="s">
+      <c r="C68" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="78"/>
-      <c r="E68" s="79"/>
-      <c r="F68" s="60" t="s">
+      <c r="D68" s="109"/>
+      <c r="E68" s="110"/>
+      <c r="F68" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="63"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="139"/>
+      <c r="I68" s="139"/>
+      <c r="J68" s="141"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
       <c r="O68" s="26"/>
-      <c r="P68" s="147"/>
+      <c r="P68" s="85"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
-      <c r="T68" s="148"/>
+      <c r="T68" s="86"/>
       <c r="U68" s="24"/>
       <c r="V68" s="24"/>
-      <c r="W68" s="134"/>
+      <c r="W68" s="80"/>
       <c r="X68" s="26"/>
       <c r="Y68" s="58"/>
       <c r="Z68" s="58"/>
@@ -4851,23 +4851,23 @@
       <c r="AI68" s="24"/>
       <c r="AJ68" s="24"/>
       <c r="AK68" s="25"/>
-      <c r="AL68" s="66"/>
+      <c r="AL68" s="89"/>
       <c r="AM68" s="57"/>
       <c r="AN68" s="21"/>
     </row>
-    <row r="69" spans="2:40" ht="82.5">
-      <c r="B69" s="75"/>
-      <c r="C69" s="80" t="s">
+    <row r="69" spans="2:40" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B69" s="106"/>
+      <c r="C69" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="80" t="s">
+      <c r="D69" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="80"/>
+      <c r="E69" s="101"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
-      <c r="I69" s="121" t="s">
+      <c r="I69" s="67" t="s">
         <v>91</v>
       </c>
       <c r="J69" s="3"/>
@@ -4876,18 +4876,18 @@
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-      <c r="P69" s="121" t="s">
+      <c r="P69" s="67" t="s">
         <v>122</v>
       </c>
       <c r="Q69" s="3"/>
       <c r="R69" s="3"/>
       <c r="S69" s="3"/>
-      <c r="T69" s="121" t="s">
+      <c r="T69" s="67" t="s">
         <v>123</v>
       </c>
       <c r="U69" s="3"/>
-      <c r="V69" s="132"/>
-      <c r="W69" s="121" t="s">
+      <c r="V69" s="78"/>
+      <c r="W69" s="67" t="s">
         <v>91</v>
       </c>
       <c r="X69" s="3"/>
@@ -4901,19 +4901,19 @@
       <c r="AF69" s="3"/>
       <c r="AG69" s="3"/>
       <c r="AH69" s="3"/>
-      <c r="AI69" s="121" t="s">
+      <c r="AI69" s="67" t="s">
         <v>91</v>
       </c>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="12"/>
-      <c r="AL69" s="66"/>
+      <c r="AL69" s="89"/>
       <c r="AM69" s="29"/>
       <c r="AN69" s="12"/>
     </row>
-    <row r="70" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B70" s="75"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="82" t="s">
+    <row r="70" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="106"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -4922,21 +4922,21 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
-      <c r="I70" s="122"/>
+      <c r="I70" s="68"/>
       <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-      <c r="P70" s="122"/>
+      <c r="P70" s="68"/>
       <c r="Q70" s="3"/>
       <c r="R70" s="3"/>
       <c r="S70" s="3"/>
-      <c r="T70" s="122"/>
+      <c r="T70" s="68"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="132"/>
-      <c r="W70" s="122"/>
+      <c r="V70" s="78"/>
+      <c r="W70" s="68"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
@@ -4948,38 +4948,38 @@
       <c r="AF70" s="3"/>
       <c r="AG70" s="3"/>
       <c r="AH70" s="3"/>
-      <c r="AI70" s="122"/>
+      <c r="AI70" s="68"/>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="12"/>
-      <c r="AL70" s="66"/>
+      <c r="AL70" s="89"/>
       <c r="AM70" s="29"/>
       <c r="AN70" s="12"/>
     </row>
-    <row r="71" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B71" s="75"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="83"/>
+    <row r="71" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="106"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="103"/>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
-      <c r="I71" s="122"/>
+      <c r="I71" s="68"/>
       <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-      <c r="P71" s="122"/>
+      <c r="P71" s="68"/>
       <c r="Q71" s="3"/>
       <c r="R71" s="3"/>
       <c r="S71" s="3"/>
-      <c r="T71" s="122"/>
+      <c r="T71" s="68"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="132"/>
-      <c r="W71" s="122"/>
+      <c r="V71" s="78"/>
+      <c r="W71" s="68"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
@@ -4991,38 +4991,38 @@
       <c r="AF71" s="3"/>
       <c r="AG71" s="3"/>
       <c r="AH71" s="3"/>
-      <c r="AI71" s="122"/>
+      <c r="AI71" s="68"/>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="12"/>
-      <c r="AL71" s="66"/>
+      <c r="AL71" s="89"/>
       <c r="AM71" s="29"/>
       <c r="AN71" s="12"/>
     </row>
-    <row r="72" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B72" s="75"/>
-      <c r="C72" s="80"/>
-      <c r="D72" s="83"/>
+    <row r="72" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="106"/>
+      <c r="C72" s="101"/>
+      <c r="D72" s="103"/>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
-      <c r="I72" s="122"/>
+      <c r="I72" s="68"/>
       <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-      <c r="P72" s="122"/>
+      <c r="P72" s="68"/>
       <c r="Q72" s="3"/>
       <c r="R72" s="3"/>
       <c r="S72" s="3"/>
-      <c r="T72" s="122"/>
+      <c r="T72" s="68"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="132"/>
-      <c r="W72" s="122"/>
+      <c r="V72" s="78"/>
+      <c r="W72" s="68"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
@@ -5034,38 +5034,38 @@
       <c r="AF72" s="3"/>
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
-      <c r="AI72" s="122"/>
+      <c r="AI72" s="68"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="12"/>
-      <c r="AL72" s="66"/>
+      <c r="AL72" s="89"/>
       <c r="AM72" s="29"/>
       <c r="AN72" s="12"/>
     </row>
-    <row r="73" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B73" s="75"/>
-      <c r="C73" s="80"/>
-      <c r="D73" s="83"/>
+    <row r="73" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="106"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="103"/>
       <c r="E73" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
-      <c r="I73" s="122"/>
+      <c r="I73" s="68"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-      <c r="P73" s="122"/>
+      <c r="P73" s="68"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3"/>
       <c r="S73" s="3"/>
-      <c r="T73" s="122"/>
+      <c r="T73" s="68"/>
       <c r="U73" s="3"/>
-      <c r="V73" s="132"/>
-      <c r="W73" s="122"/>
+      <c r="V73" s="78"/>
+      <c r="W73" s="68"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
@@ -5077,38 +5077,38 @@
       <c r="AF73" s="3"/>
       <c r="AG73" s="3"/>
       <c r="AH73" s="3"/>
-      <c r="AI73" s="122"/>
+      <c r="AI73" s="68"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="12"/>
-      <c r="AL73" s="66"/>
+      <c r="AL73" s="89"/>
       <c r="AM73" s="29"/>
       <c r="AN73" s="12"/>
     </row>
-    <row r="74" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B74" s="75"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="83"/>
+    <row r="74" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="106"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="103"/>
       <c r="E74" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
-      <c r="I74" s="122"/>
+      <c r="I74" s="68"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-      <c r="P74" s="122"/>
+      <c r="P74" s="68"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3"/>
       <c r="S74" s="3"/>
-      <c r="T74" s="122"/>
+      <c r="T74" s="68"/>
       <c r="U74" s="3"/>
-      <c r="V74" s="132"/>
-      <c r="W74" s="122"/>
+      <c r="V74" s="78"/>
+      <c r="W74" s="68"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
@@ -5120,38 +5120,38 @@
       <c r="AF74" s="3"/>
       <c r="AG74" s="3"/>
       <c r="AH74" s="3"/>
-      <c r="AI74" s="122"/>
+      <c r="AI74" s="68"/>
       <c r="AJ74" s="3"/>
       <c r="AK74" s="12"/>
-      <c r="AL74" s="66"/>
+      <c r="AL74" s="89"/>
       <c r="AM74" s="29"/>
       <c r="AN74" s="12"/>
     </row>
-    <row r="75" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B75" s="75"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="83"/>
+    <row r="75" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="106"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="103"/>
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
-      <c r="I75" s="122"/>
+      <c r="I75" s="68"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-      <c r="P75" s="122"/>
+      <c r="P75" s="68"/>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
       <c r="S75" s="3"/>
-      <c r="T75" s="122"/>
+      <c r="T75" s="68"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="132"/>
-      <c r="W75" s="122"/>
+      <c r="V75" s="78"/>
+      <c r="W75" s="68"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
@@ -5163,38 +5163,38 @@
       <c r="AF75" s="3"/>
       <c r="AG75" s="3"/>
       <c r="AH75" s="3"/>
-      <c r="AI75" s="122"/>
+      <c r="AI75" s="68"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="12"/>
-      <c r="AL75" s="66"/>
+      <c r="AL75" s="89"/>
       <c r="AM75" s="29"/>
       <c r="AN75" s="12"/>
     </row>
-    <row r="76" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B76" s="75"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="83"/>
+    <row r="76" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="106"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="103"/>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
-      <c r="I76" s="122"/>
+      <c r="I76" s="68"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
-      <c r="P76" s="122"/>
+      <c r="P76" s="68"/>
       <c r="Q76" s="3"/>
       <c r="R76" s="3"/>
       <c r="S76" s="3"/>
-      <c r="T76" s="122"/>
+      <c r="T76" s="68"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="132"/>
-      <c r="W76" s="122"/>
+      <c r="V76" s="78"/>
+      <c r="W76" s="68"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
@@ -5206,38 +5206,38 @@
       <c r="AF76" s="3"/>
       <c r="AG76" s="3"/>
       <c r="AH76" s="3"/>
-      <c r="AI76" s="122"/>
+      <c r="AI76" s="68"/>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="12"/>
-      <c r="AL76" s="66"/>
+      <c r="AL76" s="89"/>
       <c r="AM76" s="29"/>
       <c r="AN76" s="12"/>
     </row>
-    <row r="77" spans="2:40" ht="22.5" customHeight="1">
-      <c r="B77" s="75"/>
-      <c r="C77" s="80"/>
-      <c r="D77" s="83"/>
+    <row r="77" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="106"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="103"/>
       <c r="E77" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
-      <c r="I77" s="122"/>
+      <c r="I77" s="68"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
       <c r="O77" s="3"/>
-      <c r="P77" s="122"/>
+      <c r="P77" s="68"/>
       <c r="Q77" s="3"/>
       <c r="R77" s="3"/>
       <c r="S77" s="3"/>
-      <c r="T77" s="122"/>
+      <c r="T77" s="68"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="132"/>
-      <c r="W77" s="122"/>
+      <c r="V77" s="78"/>
+      <c r="W77" s="68"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
@@ -5249,38 +5249,38 @@
       <c r="AF77" s="3"/>
       <c r="AG77" s="3"/>
       <c r="AH77" s="3"/>
-      <c r="AI77" s="122"/>
+      <c r="AI77" s="68"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="12"/>
-      <c r="AL77" s="66"/>
+      <c r="AL77" s="89"/>
       <c r="AM77" s="29"/>
       <c r="AN77" s="12"/>
     </row>
-    <row r="78" spans="2:40" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B78" s="76"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="84"/>
+    <row r="78" spans="2:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="107"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="104"/>
       <c r="E78" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="130"/>
+      <c r="I78" s="76"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="130"/>
+      <c r="P78" s="76"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
-      <c r="T78" s="130"/>
+      <c r="T78" s="76"/>
       <c r="U78" s="13"/>
-      <c r="V78" s="133"/>
-      <c r="W78" s="130"/>
+      <c r="V78" s="79"/>
+      <c r="W78" s="76"/>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -5292,15 +5292,56 @@
       <c r="AF78" s="13"/>
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
-      <c r="AI78" s="130"/>
+      <c r="AI78" s="76"/>
       <c r="AJ78" s="13"/>
       <c r="AK78" s="14"/>
-      <c r="AL78" s="67"/>
+      <c r="AL78" s="90"/>
       <c r="AM78" s="30"/>
       <c r="AN78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="Q16:W16"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="B55:E56"/>
+    <mergeCell ref="B57:B67"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="P42:V42"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:D52"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="I48:I52"/>
+    <mergeCell ref="B42:B52"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:O42"/>
+    <mergeCell ref="C58:C67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:D67"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="K31:N31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="AL57:AL78"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="B5:B15"/>
@@ -5317,47 +5358,6 @@
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="O16:P16"/>
     <mergeCell ref="C17:C26"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="B55:E56"/>
-    <mergeCell ref="B57:B67"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="P42:V42"/>
-    <mergeCell ref="C43:C52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:D52"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="I48:I52"/>
-    <mergeCell ref="B42:B52"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:O42"/>
-    <mergeCell ref="C58:C67"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:D67"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="Q16:W16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/마포구청 개발.디자인 진행 일정 및 내용_20210406_ver2.0.xlsx
+++ b/마포구청 개발.디자인 진행 일정 및 내용_20210406_ver2.0.xlsx
@@ -539,7 +539,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -618,6 +618,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -664,12 +673,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1104,13 +1112,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1327,18 +1353,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1363,17 +1377,167 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1384,27 +1548,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1414,36 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1456,113 +1569,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="1" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1843,8 +1864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AN78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView tabSelected="1" topLeftCell="D30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1858,12 +1879,12 @@
   <sheetData>
     <row r="2" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
+      <c r="C3" s="110"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="51" t="s">
         <v>30</v>
       </c>
@@ -1950,10 +1971,10 @@
       </c>
     </row>
     <row r="4" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="93"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
       <c r="F4" s="52">
         <v>44256</v>
       </c>
@@ -2040,18 +2061,18 @@
       </c>
     </row>
     <row r="5" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="97" t="s">
+      <c r="C5" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="98" t="s">
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="99"/>
+      <c r="G5" s="138"/>
       <c r="H5" s="36"/>
       <c r="I5" s="37"/>
       <c r="J5" s="38"/>
@@ -2060,25 +2081,25 @@
       <c r="M5" s="36"/>
       <c r="N5" s="36"/>
       <c r="O5" s="36"/>
-      <c r="P5" s="98" t="s">
+      <c r="P5" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="99"/>
+      <c r="Q5" s="138"/>
       <c r="R5" s="36"/>
       <c r="S5" s="36"/>
-      <c r="T5" s="98" t="s">
+      <c r="T5" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="U5" s="99"/>
+      <c r="U5" s="138"/>
       <c r="V5" s="36"/>
       <c r="W5" s="36"/>
-      <c r="X5" s="135" t="s">
+      <c r="X5" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="Y5" s="136"/>
-      <c r="Z5" s="136"/>
-      <c r="AA5" s="136"/>
-      <c r="AB5" s="137"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="84"/>
       <c r="AC5" s="36"/>
       <c r="AD5" s="36"/>
       <c r="AE5" s="36"/>
@@ -2086,14 +2107,14 @@
       <c r="AG5" s="63"/>
     </row>
     <row r="6" spans="2:33" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="95"/>
-      <c r="C6" s="100" t="s">
+      <c r="B6" s="113"/>
+      <c r="C6" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="101" t="s">
+      <c r="D6" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="104"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38" t="s">
         <v>71</v>
@@ -2144,9 +2165,9 @@
       <c r="AG6" s="65"/>
     </row>
     <row r="7" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="95"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="104"/>
+      <c r="D7" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -2196,9 +2217,9 @@
       <c r="AG7" s="65"/>
     </row>
     <row r="8" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="95"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="103"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="104"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
@@ -2246,9 +2267,9 @@
       <c r="AG8" s="65"/>
     </row>
     <row r="9" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="95"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="103"/>
+      <c r="B9" s="113"/>
+      <c r="C9" s="104"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2296,9 +2317,9 @@
       <c r="AG9" s="65"/>
     </row>
     <row r="10" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="95"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="103"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="3" t="s">
         <v>19</v>
       </c>
@@ -2334,9 +2355,9 @@
       <c r="AG10" s="65"/>
     </row>
     <row r="11" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="103"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2356,7 +2377,7 @@
       <c r="S11" s="38"/>
       <c r="T11" s="38"/>
       <c r="U11" s="38"/>
-      <c r="V11" s="122" t="s">
+      <c r="V11" s="91" t="s">
         <v>57</v>
       </c>
       <c r="W11" s="38"/>
@@ -2372,9 +2393,9 @@
       <c r="AG11" s="65"/>
     </row>
     <row r="12" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="95"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="103"/>
+      <c r="B12" s="113"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="3" t="s">
         <v>8</v>
       </c>
@@ -2394,7 +2415,7 @@
       <c r="S12" s="38"/>
       <c r="T12" s="38"/>
       <c r="U12" s="38"/>
-      <c r="V12" s="144"/>
+      <c r="V12" s="92"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
@@ -2408,9 +2429,9 @@
       <c r="AG12" s="65"/>
     </row>
     <row r="13" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="95"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="103"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2430,7 +2451,7 @@
       <c r="S13" s="38"/>
       <c r="T13" s="38"/>
       <c r="U13" s="38"/>
-      <c r="V13" s="144"/>
+      <c r="V13" s="92"/>
       <c r="W13" s="38"/>
       <c r="X13" s="38"/>
       <c r="Y13" s="38"/>
@@ -2444,9 +2465,9 @@
       <c r="AG13" s="65"/>
     </row>
     <row r="14" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="95"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="103"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
@@ -2466,7 +2487,7 @@
       <c r="S14" s="38"/>
       <c r="T14" s="38"/>
       <c r="U14" s="38"/>
-      <c r="V14" s="144"/>
+      <c r="V14" s="92"/>
       <c r="W14" s="38"/>
       <c r="X14" s="38"/>
       <c r="Y14" s="38"/>
@@ -2480,9 +2501,9 @@
       <c r="AG14" s="65"/>
     </row>
     <row r="15" spans="2:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="96"/>
-      <c r="C15" s="94"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="108"/>
       <c r="E15" s="13" t="s">
         <v>11</v>
       </c>
@@ -2502,7 +2523,7 @@
       <c r="S15" s="43"/>
       <c r="T15" s="43"/>
       <c r="U15" s="43"/>
-      <c r="V15" s="145"/>
+      <c r="V15" s="93"/>
       <c r="W15" s="43"/>
       <c r="X15" s="43"/>
       <c r="Y15" s="43"/>
@@ -2516,62 +2537,62 @@
       <c r="AG15" s="66"/>
     </row>
     <row r="16" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="105" t="s">
+      <c r="B16" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="98" t="s">
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="112"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="141"/>
       <c r="J16" s="44"/>
       <c r="K16" s="44"/>
       <c r="L16" s="44"/>
       <c r="M16" s="44"/>
       <c r="N16" s="10"/>
-      <c r="O16" s="113" t="s">
+      <c r="O16" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="P16" s="114"/>
-      <c r="Q16" s="147" t="s">
+      <c r="P16" s="143"/>
+      <c r="Q16" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="149"/>
-      <c r="X16" s="135" t="s">
+      <c r="R16" s="96"/>
+      <c r="S16" s="96"/>
+      <c r="T16" s="96"/>
+      <c r="U16" s="96"/>
+      <c r="V16" s="96"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="142"/>
-      <c r="AA16" s="142"/>
-      <c r="AB16" s="142"/>
-      <c r="AC16" s="142"/>
-      <c r="AD16" s="146"/>
-      <c r="AE16" s="135" t="s">
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="94"/>
+      <c r="AE16" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="AF16" s="142"/>
-      <c r="AG16" s="143"/>
+      <c r="AF16" s="89"/>
+      <c r="AG16" s="90"/>
     </row>
     <row r="17" spans="2:33" ht="66" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
-      <c r="C17" s="100" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="101" t="s">
+      <c r="D17" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="101"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="39"/>
       <c r="G17" s="38" t="s">
         <v>71</v>
@@ -2626,9 +2647,9 @@
       <c r="AG17" s="65"/>
     </row>
     <row r="18" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="106"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="106" t="s">
         <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -2684,9 +2705,9 @@
       <c r="AG18" s="65"/>
     </row>
     <row r="19" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="106"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="103"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="107"/>
       <c r="E19" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,9 +2761,9 @@
       <c r="AG19" s="65"/>
     </row>
     <row r="20" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="103"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="107"/>
       <c r="E20" s="3" t="s">
         <v>6</v>
       </c>
@@ -2796,9 +2817,9 @@
       <c r="AG20" s="65"/>
     </row>
     <row r="21" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="106"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="103"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="107"/>
       <c r="E21" s="3" t="s">
         <v>19</v>
       </c>
@@ -2840,9 +2861,9 @@
       <c r="AG21" s="65"/>
     </row>
     <row r="22" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="106"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="103"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="107"/>
       <c r="E22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2887,7 @@
       <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
-      <c r="V22" s="122" t="s">
+      <c r="V22" s="91" t="s">
         <v>57</v>
       </c>
       <c r="W22" s="38"/>
@@ -2884,9 +2905,9 @@
       <c r="AG22" s="65"/>
     </row>
     <row r="23" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="106"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="103"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="107"/>
       <c r="E23" s="3" t="s">
         <v>8</v>
       </c>
@@ -2910,7 +2931,7 @@
       <c r="S23" s="38"/>
       <c r="T23" s="38"/>
       <c r="U23" s="38"/>
-      <c r="V23" s="144"/>
+      <c r="V23" s="92"/>
       <c r="W23" s="38"/>
       <c r="X23" s="59" t="s">
         <v>53</v>
@@ -2926,9 +2947,9 @@
       <c r="AG23" s="65"/>
     </row>
     <row r="24" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="106"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="103"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="107"/>
       <c r="E24" s="3" t="s">
         <v>9</v>
       </c>
@@ -2952,7 +2973,7 @@
       <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
-      <c r="V24" s="144"/>
+      <c r="V24" s="92"/>
       <c r="W24" s="38"/>
       <c r="X24" s="59" t="s">
         <v>54</v>
@@ -2968,9 +2989,9 @@
       <c r="AG24" s="65"/>
     </row>
     <row r="25" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="106"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="103"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="107"/>
       <c r="E25" s="3" t="s">
         <v>10</v>
       </c>
@@ -2994,7 +3015,7 @@
       <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
-      <c r="V25" s="144"/>
+      <c r="V25" s="92"/>
       <c r="W25" s="38"/>
       <c r="X25" s="59" t="s">
         <v>103</v>
@@ -3010,9 +3031,9 @@
       <c r="AG25" s="65"/>
     </row>
     <row r="26" spans="2:33" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="107"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="104"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="108"/>
       <c r="E26" s="13" t="s">
         <v>11</v>
       </c>
@@ -3036,7 +3057,7 @@
       <c r="S26" s="43"/>
       <c r="T26" s="43"/>
       <c r="U26" s="43"/>
-      <c r="V26" s="145"/>
+      <c r="V26" s="93"/>
       <c r="W26" s="43"/>
       <c r="X26" s="47" t="s">
         <v>49</v>
@@ -3053,12 +3074,12 @@
     </row>
     <row r="28" spans="2:33" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B29" s="91" t="s">
+      <c r="B29" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
       <c r="F29" s="20" t="s">
         <v>30</v>
       </c>
@@ -3145,10 +3166,10 @@
       </c>
     </row>
     <row r="30" spans="2:33" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="93"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="105"/>
       <c r="F30" s="18">
         <v>44284</v>
       </c>
@@ -3235,27 +3256,27 @@
       </c>
     </row>
     <row r="31" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C31" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="118" t="s">
+      <c r="D31" s="133"/>
+      <c r="E31" s="133"/>
+      <c r="F31" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="G31" s="119"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="119"/>
-      <c r="K31" s="118" t="s">
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="126"/>
+      <c r="N31" s="126"/>
       <c r="O31" s="9"/>
       <c r="P31" s="9"/>
       <c r="Q31" s="22"/>
@@ -3276,15 +3297,15 @@
       <c r="AF31" s="6"/>
       <c r="AG31" s="35"/>
     </row>
-    <row r="32" spans="2:33" ht="66" x14ac:dyDescent="0.3">
-      <c r="B32" s="116"/>
-      <c r="C32" s="101" t="s">
+    <row r="32" spans="2:33" ht="67.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="131"/>
+      <c r="C32" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="101" t="s">
+      <c r="D32" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="101"/>
+      <c r="E32" s="104"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="37" t="s">
@@ -3293,20 +3314,20 @@
       <c r="I32" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="69" t="s">
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="145" t="s">
         <v>116</v>
       </c>
-      <c r="O32" s="3"/>
-      <c r="P32" s="5" t="s">
+      <c r="O32" s="144"/>
+      <c r="P32" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="144"/>
+      <c r="S32" s="144"/>
       <c r="T32" s="69" t="s">
         <v>29</v>
       </c>
@@ -3328,10 +3349,10 @@
       <c r="AF32" s="3"/>
       <c r="AG32" s="12"/>
     </row>
-    <row r="33" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="116"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101" t="s">
+    <row r="33" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="131"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="104" t="s">
         <v>16</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -3340,21 +3361,21 @@
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
       <c r="H33" s="38"/>
-      <c r="I33" s="120" t="s">
+      <c r="I33" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="72" t="s">
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+      <c r="R33" s="144"/>
+      <c r="S33" s="144"/>
       <c r="T33" s="70"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
@@ -3370,29 +3391,29 @@
       <c r="AF33" s="3"/>
       <c r="AG33" s="12"/>
     </row>
-    <row r="34" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="116"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
+    <row r="34" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="131"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
       <c r="E34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F34" s="38"/>
       <c r="G34" s="38"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="121"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="73" t="s">
+      <c r="I34" s="118"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="144"/>
+      <c r="L34" s="144"/>
+      <c r="M34" s="144"/>
+      <c r="N34" s="144" t="s">
         <v>117</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
+      <c r="O34" s="144"/>
+      <c r="P34" s="144"/>
+      <c r="Q34" s="144"/>
+      <c r="R34" s="144"/>
+      <c r="S34" s="144"/>
       <c r="T34" s="70"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -3408,29 +3429,29 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="12"/>
     </row>
-    <row r="35" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="116"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
+    <row r="35" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="131"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
       <c r="E35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="73" t="s">
+      <c r="I35" s="118"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
       <c r="T35" s="70"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
@@ -3446,10 +3467,10 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="12"/>
     </row>
-    <row r="36" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="116"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
+    <row r="36" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="131"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
       <c r="E36" s="3" t="s">
         <v>19</v>
       </c>
@@ -3457,16 +3478,16 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
       <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
@@ -3482,29 +3503,29 @@
       <c r="AF36" s="3"/>
       <c r="AG36" s="12"/>
     </row>
-    <row r="37" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="116"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="101"/>
+    <row r="37" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="131"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
       <c r="E37" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="38"/>
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
-      <c r="I37" s="122" t="s">
+      <c r="I37" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="38"/>
-      <c r="M37" s="38"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
+      <c r="J37" s="144"/>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="144"/>
+      <c r="P37" s="144"/>
+      <c r="Q37" s="144"/>
+      <c r="R37" s="144"/>
+      <c r="S37" s="144"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
@@ -3520,27 +3541,27 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="12"/>
     </row>
-    <row r="38" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="116"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="101"/>
+    <row r="38" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B38" s="131"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
       <c r="E38" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="38"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="123"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="38"/>
-      <c r="M38" s="38"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="144"/>
+      <c r="K38" s="144"/>
+      <c r="L38" s="144"/>
+      <c r="M38" s="144"/>
+      <c r="N38" s="144"/>
+      <c r="O38" s="144"/>
+      <c r="P38" s="144"/>
+      <c r="Q38" s="144"/>
+      <c r="R38" s="144"/>
+      <c r="S38" s="144"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
@@ -3556,27 +3577,27 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="12"/>
     </row>
-    <row r="39" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="116"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="101"/>
+    <row r="39" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="131"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
       <c r="E39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="38"/>
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
-      <c r="I39" s="123"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="38"/>
-      <c r="M39" s="38"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="144"/>
+      <c r="K39" s="144"/>
+      <c r="L39" s="144"/>
+      <c r="M39" s="144"/>
+      <c r="N39" s="144"/>
+      <c r="O39" s="144"/>
+      <c r="P39" s="144"/>
+      <c r="Q39" s="144"/>
+      <c r="R39" s="144"/>
+      <c r="S39" s="144"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
@@ -3592,27 +3613,27 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="12"/>
     </row>
-    <row r="40" spans="2:33" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="116"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="101"/>
+    <row r="40" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="131"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
       <c r="E40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="123"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="38"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="144"/>
+      <c r="K40" s="144"/>
+      <c r="L40" s="144"/>
+      <c r="M40" s="144"/>
+      <c r="N40" s="144"/>
+      <c r="O40" s="144"/>
+      <c r="P40" s="144"/>
+      <c r="Q40" s="144"/>
+      <c r="R40" s="144"/>
+      <c r="S40" s="144"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
@@ -3628,27 +3649,27 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="12"/>
     </row>
-    <row r="41" spans="2:33" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="117"/>
-      <c r="C41" s="102"/>
-      <c r="D41" s="102"/>
+    <row r="41" spans="2:33" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="132"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
       <c r="E41" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="27"/>
-      <c r="S41" s="27"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="129"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="144"/>
+      <c r="L41" s="144"/>
+      <c r="M41" s="144"/>
+      <c r="N41" s="144"/>
+      <c r="O41" s="144"/>
+      <c r="P41" s="144"/>
+      <c r="Q41" s="144"/>
+      <c r="R41" s="144"/>
+      <c r="S41" s="144"/>
       <c r="T41" s="27"/>
       <c r="U41" s="27"/>
       <c r="V41" s="27"/>
@@ -3664,83 +3685,83 @@
       <c r="AF41" s="27"/>
       <c r="AG41" s="28"/>
     </row>
-    <row r="42" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="131" t="s">
+    <row r="42" spans="2:33" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="92" t="s">
+      <c r="C42" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="134" t="s">
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
+      <c r="F42" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="126" t="s">
+      <c r="G42" s="125"/>
+      <c r="H42" s="125"/>
+      <c r="I42" s="125"/>
+      <c r="J42" s="146" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="127"/>
-      <c r="L42" s="127"/>
-      <c r="M42" s="127"/>
-      <c r="N42" s="127"/>
-      <c r="O42" s="127"/>
-      <c r="P42" s="126" t="s">
+      <c r="K42" s="147"/>
+      <c r="L42" s="147"/>
+      <c r="M42" s="147"/>
+      <c r="N42" s="147"/>
+      <c r="O42" s="147"/>
+      <c r="P42" s="115" t="s">
         <v>70</v>
       </c>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
-      <c r="U42" s="127"/>
-      <c r="V42" s="127"/>
+      <c r="Q42" s="116"/>
+      <c r="R42" s="116"/>
+      <c r="S42" s="116"/>
+      <c r="T42" s="116"/>
+      <c r="U42" s="116"/>
+      <c r="V42" s="116"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10"/>
-      <c r="AA42" s="138" t="s">
+      <c r="AA42" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="AB42" s="139"/>
-      <c r="AC42" s="139"/>
-      <c r="AD42" s="139"/>
-      <c r="AE42" s="139"/>
-      <c r="AF42" s="139"/>
-      <c r="AG42" s="140"/>
-    </row>
-    <row r="43" spans="2:33" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B43" s="132"/>
-      <c r="C43" s="101" t="s">
+      <c r="AB42" s="86"/>
+      <c r="AC42" s="86"/>
+      <c r="AD42" s="86"/>
+      <c r="AE42" s="86"/>
+      <c r="AF42" s="86"/>
+      <c r="AG42" s="87"/>
+    </row>
+    <row r="43" spans="2:33" ht="100.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="123"/>
+      <c r="C43" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E43" s="101"/>
+      <c r="E43" s="104"/>
       <c r="F43" s="39"/>
       <c r="G43" s="50"/>
       <c r="H43" s="38"/>
       <c r="I43" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J43" s="84" t="s">
+      <c r="J43" s="145" t="s">
         <v>121</v>
       </c>
-      <c r="K43" s="38"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="38"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="87" t="s">
+      <c r="K43" s="144"/>
+      <c r="L43" s="144"/>
+      <c r="M43" s="144"/>
+      <c r="N43" s="144"/>
+      <c r="O43" s="144"/>
+      <c r="P43" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="Q43" s="5" t="s">
+      <c r="Q43" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
+      <c r="R43" s="144"/>
+      <c r="S43" s="144"/>
       <c r="T43" s="3"/>
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
@@ -3762,10 +3783,10 @@
       <c r="AF43" s="3"/>
       <c r="AG43" s="12"/>
     </row>
-    <row r="44" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="132"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101" t="s">
+    <row r="44" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="123"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="3" t="s">
@@ -3774,19 +3795,19 @@
       <c r="F44" s="38"/>
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
-      <c r="I44" s="120" t="s">
+      <c r="I44" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="J44" s="74"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="38"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
+      <c r="J44" s="144"/>
+      <c r="K44" s="144"/>
+      <c r="L44" s="144"/>
+      <c r="M44" s="144"/>
+      <c r="N44" s="144"/>
+      <c r="O44" s="144"/>
+      <c r="P44" s="144"/>
+      <c r="Q44" s="144"/>
+      <c r="R44" s="144"/>
+      <c r="S44" s="144"/>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
@@ -3802,27 +3823,27 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="12"/>
     </row>
-    <row r="45" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="132"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
+    <row r="45" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="123"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
       <c r="E45" s="3" t="s">
         <v>5</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="38"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="144"/>
+      <c r="K45" s="144"/>
+      <c r="L45" s="144"/>
+      <c r="M45" s="144"/>
+      <c r="N45" s="144"/>
+      <c r="O45" s="144"/>
+      <c r="P45" s="144"/>
+      <c r="Q45" s="144"/>
+      <c r="R45" s="144"/>
+      <c r="S45" s="144"/>
       <c r="T45" s="3"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -3838,27 +3859,27 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="12"/>
     </row>
-    <row r="46" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="132"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
+    <row r="46" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="123"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
       <c r="E46" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="74"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="38"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="144"/>
+      <c r="K46" s="144"/>
+      <c r="L46" s="144"/>
+      <c r="M46" s="144"/>
+      <c r="N46" s="144"/>
+      <c r="O46" s="144"/>
+      <c r="P46" s="144"/>
+      <c r="Q46" s="144"/>
+      <c r="R46" s="144"/>
+      <c r="S46" s="144"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
@@ -3874,10 +3895,10 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="12"/>
     </row>
-    <row r="47" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="132"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
+    <row r="47" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="123"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
       <c r="E47" s="3" t="s">
         <v>19</v>
       </c>
@@ -3885,16 +3906,16 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
-      <c r="J47" s="74"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
+      <c r="J47" s="144"/>
+      <c r="K47" s="144"/>
+      <c r="L47" s="144"/>
+      <c r="M47" s="144"/>
+      <c r="N47" s="144"/>
+      <c r="O47" s="144"/>
+      <c r="P47" s="144"/>
+      <c r="Q47" s="144"/>
+      <c r="R47" s="144"/>
+      <c r="S47" s="144"/>
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
@@ -3910,29 +3931,29 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="12"/>
     </row>
-    <row r="48" spans="2:33" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="132"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
+    <row r="48" spans="2:33" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B48" s="123"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
       <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="38"/>
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
-      <c r="I48" s="128" t="s">
+      <c r="I48" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="74"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="38"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="8"/>
-      <c r="Q48" s="8"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
+      <c r="J48" s="144"/>
+      <c r="K48" s="144"/>
+      <c r="L48" s="144"/>
+      <c r="M48" s="144"/>
+      <c r="N48" s="144"/>
+      <c r="O48" s="144"/>
+      <c r="P48" s="144"/>
+      <c r="Q48" s="144"/>
+      <c r="R48" s="144"/>
+      <c r="S48" s="144"/>
       <c r="T48" s="3"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
@@ -3948,27 +3969,27 @@
       <c r="AF48" s="3"/>
       <c r="AG48" s="12"/>
     </row>
-    <row r="49" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="132"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
+    <row r="49" spans="2:40" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="123"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
       <c r="E49" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="38"/>
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="74"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="38"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="144"/>
+      <c r="K49" s="144"/>
+      <c r="L49" s="144"/>
+      <c r="M49" s="144"/>
+      <c r="N49" s="144"/>
+      <c r="O49" s="144"/>
+      <c r="P49" s="144"/>
+      <c r="Q49" s="144"/>
+      <c r="R49" s="144"/>
+      <c r="S49" s="144"/>
       <c r="T49" s="3"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
@@ -3984,27 +4005,27 @@
       <c r="AF49" s="3"/>
       <c r="AG49" s="12"/>
     </row>
-    <row r="50" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="132"/>
-      <c r="C50" s="101"/>
-      <c r="D50" s="101"/>
+    <row r="50" spans="2:40" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="123"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
       <c r="E50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="38"/>
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="74"/>
-      <c r="K50" s="38"/>
-      <c r="L50" s="38"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
+      <c r="I50" s="120"/>
+      <c r="J50" s="144"/>
+      <c r="K50" s="144"/>
+      <c r="L50" s="144"/>
+      <c r="M50" s="144"/>
+      <c r="N50" s="144"/>
+      <c r="O50" s="144"/>
+      <c r="P50" s="144"/>
+      <c r="Q50" s="144"/>
+      <c r="R50" s="144"/>
+      <c r="S50" s="144"/>
       <c r="T50" s="3"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
@@ -4020,27 +4041,27 @@
       <c r="AF50" s="3"/>
       <c r="AG50" s="12"/>
     </row>
-    <row r="51" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="132"/>
-      <c r="C51" s="101"/>
-      <c r="D51" s="101"/>
+    <row r="51" spans="2:40" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B51" s="123"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
       <c r="E51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="38"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="74"/>
-      <c r="K51" s="38"/>
-      <c r="L51" s="38"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
+      <c r="I51" s="120"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="144"/>
+      <c r="P51" s="144"/>
+      <c r="Q51" s="144"/>
+      <c r="R51" s="144"/>
+      <c r="S51" s="144"/>
       <c r="T51" s="3"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
@@ -4056,27 +4077,27 @@
       <c r="AF51" s="3"/>
       <c r="AG51" s="12"/>
     </row>
-    <row r="52" spans="2:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="133"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
+    <row r="52" spans="2:40" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="124"/>
+      <c r="C52" s="105"/>
+      <c r="D52" s="105"/>
       <c r="E52" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="43"/>
       <c r="G52" s="43"/>
       <c r="H52" s="43"/>
-      <c r="I52" s="130"/>
-      <c r="J52" s="75"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="13"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="15"/>
-      <c r="Q52" s="15"/>
-      <c r="R52" s="13"/>
-      <c r="S52" s="13"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="144"/>
+      <c r="K52" s="144"/>
+      <c r="L52" s="144"/>
+      <c r="M52" s="144"/>
+      <c r="N52" s="144"/>
+      <c r="O52" s="144"/>
+      <c r="P52" s="144"/>
+      <c r="Q52" s="144"/>
+      <c r="R52" s="144"/>
+      <c r="S52" s="144"/>
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
@@ -4094,12 +4115,12 @@
     </row>
     <row r="54" spans="2:40" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="2:40" x14ac:dyDescent="0.3">
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="109" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="92"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="92"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="110"/>
+      <c r="E55" s="110"/>
       <c r="F55" s="20" t="s">
         <v>30</v>
       </c>
@@ -4207,10 +4228,10 @@
       </c>
     </row>
     <row r="56" spans="2:40" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="93"/>
-      <c r="C56" s="94"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
       <c r="F56" s="18">
         <v>44312</v>
       </c>
@@ -4318,14 +4339,14 @@
       </c>
     </row>
     <row r="57" spans="2:40" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="125" t="s">
+      <c r="B57" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="92" t="s">
+      <c r="C57" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="92"/>
-      <c r="E57" s="92"/>
+      <c r="D57" s="110"/>
+      <c r="E57" s="110"/>
       <c r="F57" s="48"/>
       <c r="G57" s="49"/>
       <c r="H57" s="10"/>
@@ -4344,7 +4365,7 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="11"/>
-      <c r="X57" s="77" t="s">
+      <c r="X57" s="73" t="s">
         <v>67</v>
       </c>
       <c r="Y57" s="33"/>
@@ -4353,7 +4374,7 @@
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="11"/>
-      <c r="AE57" s="77" t="s">
+      <c r="AE57" s="73" t="s">
         <v>67</v>
       </c>
       <c r="AF57" s="57"/>
@@ -4362,21 +4383,21 @@
       <c r="AI57" s="10"/>
       <c r="AJ57" s="10"/>
       <c r="AK57" s="11"/>
-      <c r="AL57" s="88" t="s">
+      <c r="AL57" s="134" t="s">
         <v>67</v>
       </c>
       <c r="AM57" s="57"/>
       <c r="AN57" s="21"/>
     </row>
     <row r="58" spans="2:40" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B58" s="95"/>
-      <c r="C58" s="101" t="s">
+      <c r="B58" s="113"/>
+      <c r="C58" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D58" s="101" t="s">
+      <c r="D58" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E58" s="101"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="5" t="s">
@@ -4400,7 +4421,7 @@
       </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
-      <c r="W58" s="78"/>
+      <c r="W58" s="74"/>
       <c r="X58" s="3"/>
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
@@ -4412,17 +4433,17 @@
       <c r="AF58" s="3"/>
       <c r="AG58" s="3"/>
       <c r="AH58" s="3"/>
-      <c r="AI58" s="81"/>
+      <c r="AI58" s="77"/>
       <c r="AJ58" s="3"/>
       <c r="AK58" s="12"/>
-      <c r="AL58" s="89"/>
+      <c r="AL58" s="135"/>
       <c r="AM58" s="29"/>
       <c r="AN58" s="12"/>
     </row>
     <row r="59" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="95"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102" t="s">
+      <c r="B59" s="113"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="106" t="s">
         <v>16</v>
       </c>
       <c r="E59" s="3" t="s">
@@ -4445,7 +4466,7 @@
       <c r="T59" s="68"/>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
-      <c r="W59" s="78"/>
+      <c r="W59" s="74"/>
       <c r="X59" s="3"/>
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
@@ -4457,17 +4478,17 @@
       <c r="AF59" s="3"/>
       <c r="AG59" s="3"/>
       <c r="AH59" s="3"/>
-      <c r="AI59" s="81"/>
+      <c r="AI59" s="77"/>
       <c r="AJ59" s="3"/>
       <c r="AK59" s="12"/>
-      <c r="AL59" s="89"/>
+      <c r="AL59" s="135"/>
       <c r="AM59" s="29"/>
       <c r="AN59" s="12"/>
     </row>
     <row r="60" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="95"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="103"/>
+      <c r="B60" s="113"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="107"/>
       <c r="E60" s="3" t="s">
         <v>5</v>
       </c>
@@ -4488,7 +4509,7 @@
       <c r="T60" s="68"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
-      <c r="W60" s="78"/>
+      <c r="W60" s="74"/>
       <c r="X60" s="3"/>
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
@@ -4500,17 +4521,17 @@
       <c r="AF60" s="3"/>
       <c r="AG60" s="3"/>
       <c r="AH60" s="3"/>
-      <c r="AI60" s="81"/>
+      <c r="AI60" s="77"/>
       <c r="AJ60" s="3"/>
       <c r="AK60" s="12"/>
-      <c r="AL60" s="89"/>
+      <c r="AL60" s="135"/>
       <c r="AM60" s="29"/>
       <c r="AN60" s="12"/>
     </row>
     <row r="61" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="95"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="103"/>
+      <c r="B61" s="113"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="107"/>
       <c r="E61" s="3" t="s">
         <v>6</v>
       </c>
@@ -4531,7 +4552,7 @@
       <c r="T61" s="68"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
-      <c r="W61" s="78"/>
+      <c r="W61" s="74"/>
       <c r="X61" s="3"/>
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
@@ -4543,17 +4564,17 @@
       <c r="AF61" s="3"/>
       <c r="AG61" s="3"/>
       <c r="AH61" s="3"/>
-      <c r="AI61" s="81"/>
+      <c r="AI61" s="77"/>
       <c r="AJ61" s="3"/>
       <c r="AK61" s="12"/>
-      <c r="AL61" s="89"/>
+      <c r="AL61" s="135"/>
       <c r="AM61" s="29"/>
       <c r="AN61" s="12"/>
     </row>
     <row r="62" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="95"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="103"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="107"/>
       <c r="E62" s="3" t="s">
         <v>19</v>
       </c>
@@ -4574,7 +4595,7 @@
       <c r="T62" s="68"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
-      <c r="W62" s="78"/>
+      <c r="W62" s="74"/>
       <c r="X62" s="3"/>
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
@@ -4586,17 +4607,17 @@
       <c r="AF62" s="3"/>
       <c r="AG62" s="3"/>
       <c r="AH62" s="3"/>
-      <c r="AI62" s="81"/>
+      <c r="AI62" s="77"/>
       <c r="AJ62" s="3"/>
       <c r="AK62" s="12"/>
-      <c r="AL62" s="89"/>
+      <c r="AL62" s="135"/>
       <c r="AM62" s="29"/>
       <c r="AN62" s="12"/>
     </row>
     <row r="63" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="95"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="103"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="107"/>
       <c r="E63" s="3" t="s">
         <v>7</v>
       </c>
@@ -4617,7 +4638,7 @@
       <c r="T63" s="68"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
-      <c r="W63" s="78"/>
+      <c r="W63" s="74"/>
       <c r="X63" s="3"/>
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
@@ -4629,17 +4650,17 @@
       <c r="AF63" s="3"/>
       <c r="AG63" s="3"/>
       <c r="AH63" s="3"/>
-      <c r="AI63" s="81"/>
+      <c r="AI63" s="77"/>
       <c r="AJ63" s="3"/>
       <c r="AK63" s="12"/>
-      <c r="AL63" s="89"/>
+      <c r="AL63" s="135"/>
       <c r="AM63" s="29"/>
       <c r="AN63" s="12"/>
     </row>
     <row r="64" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="103"/>
+      <c r="B64" s="113"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="107"/>
       <c r="E64" s="3" t="s">
         <v>8</v>
       </c>
@@ -4660,7 +4681,7 @@
       <c r="T64" s="68"/>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
-      <c r="W64" s="78"/>
+      <c r="W64" s="74"/>
       <c r="X64" s="3"/>
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
@@ -4672,17 +4693,17 @@
       <c r="AF64" s="3"/>
       <c r="AG64" s="3"/>
       <c r="AH64" s="3"/>
-      <c r="AI64" s="81"/>
+      <c r="AI64" s="77"/>
       <c r="AJ64" s="3"/>
       <c r="AK64" s="12"/>
-      <c r="AL64" s="89"/>
+      <c r="AL64" s="135"/>
       <c r="AM64" s="29"/>
       <c r="AN64" s="12"/>
     </row>
     <row r="65" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="95"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="103"/>
+      <c r="B65" s="113"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="107"/>
       <c r="E65" s="3" t="s">
         <v>9</v>
       </c>
@@ -4703,7 +4724,7 @@
       <c r="T65" s="68"/>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
-      <c r="W65" s="78"/>
+      <c r="W65" s="74"/>
       <c r="X65" s="3"/>
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
@@ -4715,17 +4736,17 @@
       <c r="AF65" s="3"/>
       <c r="AG65" s="3"/>
       <c r="AH65" s="3"/>
-      <c r="AI65" s="81"/>
+      <c r="AI65" s="77"/>
       <c r="AJ65" s="3"/>
       <c r="AK65" s="12"/>
-      <c r="AL65" s="89"/>
+      <c r="AL65" s="135"/>
       <c r="AM65" s="29"/>
       <c r="AN65" s="12"/>
     </row>
     <row r="66" spans="2:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="103"/>
+      <c r="B66" s="113"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="107"/>
       <c r="E66" s="3" t="s">
         <v>10</v>
       </c>
@@ -4746,7 +4767,7 @@
       <c r="T66" s="68"/>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
-      <c r="W66" s="78"/>
+      <c r="W66" s="74"/>
       <c r="X66" s="3"/>
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
@@ -4758,17 +4779,17 @@
       <c r="AF66" s="3"/>
       <c r="AG66" s="3"/>
       <c r="AH66" s="3"/>
-      <c r="AI66" s="81"/>
+      <c r="AI66" s="77"/>
       <c r="AJ66" s="3"/>
       <c r="AK66" s="12"/>
-      <c r="AL66" s="89"/>
+      <c r="AL66" s="135"/>
       <c r="AM66" s="29"/>
       <c r="AN66" s="12"/>
     </row>
     <row r="67" spans="2:40" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="96"/>
-      <c r="C67" s="94"/>
-      <c r="D67" s="104"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="108"/>
       <c r="E67" s="13" t="s">
         <v>11</v>
       </c>
@@ -4782,14 +4803,14 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
-      <c r="P67" s="76"/>
+      <c r="P67" s="72"/>
       <c r="Q67" s="13"/>
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
-      <c r="T67" s="76"/>
+      <c r="T67" s="72"/>
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
-      <c r="W67" s="79"/>
+      <c r="W67" s="75"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
       <c r="Z67" s="13"/>
@@ -4801,42 +4822,42 @@
       <c r="AF67" s="13"/>
       <c r="AG67" s="13"/>
       <c r="AH67" s="13"/>
-      <c r="AI67" s="82"/>
+      <c r="AI67" s="78"/>
       <c r="AJ67" s="13"/>
       <c r="AK67" s="14"/>
-      <c r="AL67" s="89"/>
+      <c r="AL67" s="135"/>
       <c r="AM67" s="30"/>
       <c r="AN67" s="14"/>
     </row>
     <row r="68" spans="2:40" ht="55.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="105" t="s">
+      <c r="B68" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="108" t="s">
+      <c r="C68" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="109"/>
-      <c r="E68" s="110"/>
-      <c r="F68" s="138" t="s">
+      <c r="D68" s="102"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="G68" s="139"/>
-      <c r="H68" s="139"/>
-      <c r="I68" s="139"/>
-      <c r="J68" s="141"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="88"/>
       <c r="K68" s="10"/>
       <c r="L68" s="10"/>
       <c r="M68" s="26"/>
       <c r="N68" s="26"/>
       <c r="O68" s="26"/>
-      <c r="P68" s="85"/>
+      <c r="P68" s="80"/>
       <c r="Q68" s="26"/>
       <c r="R68" s="26"/>
       <c r="S68" s="26"/>
-      <c r="T68" s="86"/>
+      <c r="T68" s="81"/>
       <c r="U68" s="24"/>
       <c r="V68" s="24"/>
-      <c r="W68" s="80"/>
+      <c r="W68" s="76"/>
       <c r="X68" s="26"/>
       <c r="Y68" s="58"/>
       <c r="Z68" s="58"/>
@@ -4851,19 +4872,19 @@
       <c r="AI68" s="24"/>
       <c r="AJ68" s="24"/>
       <c r="AK68" s="25"/>
-      <c r="AL68" s="89"/>
+      <c r="AL68" s="135"/>
       <c r="AM68" s="57"/>
       <c r="AN68" s="21"/>
     </row>
     <row r="69" spans="2:40" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B69" s="106"/>
-      <c r="C69" s="101" t="s">
+      <c r="B69" s="99"/>
+      <c r="C69" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="101" t="s">
+      <c r="D69" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="E69" s="101"/>
+      <c r="E69" s="104"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
@@ -4886,7 +4907,7 @@
         <v>123</v>
       </c>
       <c r="U69" s="3"/>
-      <c r="V69" s="78"/>
+      <c r="V69" s="74"/>
       <c r="W69" s="67" t="s">
         <v>91</v>
       </c>
@@ -4906,14 +4927,14 @@
       </c>
       <c r="AJ69" s="3"/>
       <c r="AK69" s="12"/>
-      <c r="AL69" s="89"/>
+      <c r="AL69" s="135"/>
       <c r="AM69" s="29"/>
       <c r="AN69" s="12"/>
     </row>
     <row r="70" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="106"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="102" t="s">
+      <c r="B70" s="99"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="106" t="s">
         <v>2</v>
       </c>
       <c r="E70" s="3" t="s">
@@ -4935,7 +4956,7 @@
       <c r="S70" s="3"/>
       <c r="T70" s="68"/>
       <c r="U70" s="3"/>
-      <c r="V70" s="78"/>
+      <c r="V70" s="74"/>
       <c r="W70" s="68"/>
       <c r="X70" s="3"/>
       <c r="Y70" s="3"/>
@@ -4951,14 +4972,14 @@
       <c r="AI70" s="68"/>
       <c r="AJ70" s="3"/>
       <c r="AK70" s="12"/>
-      <c r="AL70" s="89"/>
+      <c r="AL70" s="135"/>
       <c r="AM70" s="29"/>
       <c r="AN70" s="12"/>
     </row>
     <row r="71" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="106"/>
-      <c r="C71" s="101"/>
-      <c r="D71" s="103"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="107"/>
       <c r="E71" s="3" t="s">
         <v>5</v>
       </c>
@@ -4978,7 +4999,7 @@
       <c r="S71" s="3"/>
       <c r="T71" s="68"/>
       <c r="U71" s="3"/>
-      <c r="V71" s="78"/>
+      <c r="V71" s="74"/>
       <c r="W71" s="68"/>
       <c r="X71" s="3"/>
       <c r="Y71" s="3"/>
@@ -4994,14 +5015,14 @@
       <c r="AI71" s="68"/>
       <c r="AJ71" s="3"/>
       <c r="AK71" s="12"/>
-      <c r="AL71" s="89"/>
+      <c r="AL71" s="135"/>
       <c r="AM71" s="29"/>
       <c r="AN71" s="12"/>
     </row>
     <row r="72" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106"/>
-      <c r="C72" s="101"/>
-      <c r="D72" s="103"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="107"/>
       <c r="E72" s="3" t="s">
         <v>6</v>
       </c>
@@ -5021,7 +5042,7 @@
       <c r="S72" s="3"/>
       <c r="T72" s="68"/>
       <c r="U72" s="3"/>
-      <c r="V72" s="78"/>
+      <c r="V72" s="74"/>
       <c r="W72" s="68"/>
       <c r="X72" s="3"/>
       <c r="Y72" s="3"/>
@@ -5037,14 +5058,14 @@
       <c r="AI72" s="68"/>
       <c r="AJ72" s="3"/>
       <c r="AK72" s="12"/>
-      <c r="AL72" s="89"/>
+      <c r="AL72" s="135"/>
       <c r="AM72" s="29"/>
       <c r="AN72" s="12"/>
     </row>
     <row r="73" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="106"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="103"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="107"/>
       <c r="E73" s="3" t="s">
         <v>19</v>
       </c>
@@ -5064,7 +5085,7 @@
       <c r="S73" s="3"/>
       <c r="T73" s="68"/>
       <c r="U73" s="3"/>
-      <c r="V73" s="78"/>
+      <c r="V73" s="74"/>
       <c r="W73" s="68"/>
       <c r="X73" s="3"/>
       <c r="Y73" s="3"/>
@@ -5080,14 +5101,14 @@
       <c r="AI73" s="68"/>
       <c r="AJ73" s="3"/>
       <c r="AK73" s="12"/>
-      <c r="AL73" s="89"/>
+      <c r="AL73" s="135"/>
       <c r="AM73" s="29"/>
       <c r="AN73" s="12"/>
     </row>
     <row r="74" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="106"/>
-      <c r="C74" s="101"/>
-      <c r="D74" s="103"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="107"/>
       <c r="E74" s="3" t="s">
         <v>7</v>
       </c>
@@ -5107,7 +5128,7 @@
       <c r="S74" s="3"/>
       <c r="T74" s="68"/>
       <c r="U74" s="3"/>
-      <c r="V74" s="78"/>
+      <c r="V74" s="74"/>
       <c r="W74" s="68"/>
       <c r="X74" s="3"/>
       <c r="Y74" s="3"/>
@@ -5123,14 +5144,14 @@
       <c r="AI74" s="68"/>
       <c r="AJ74" s="3"/>
       <c r="AK74" s="12"/>
-      <c r="AL74" s="89"/>
+      <c r="AL74" s="135"/>
       <c r="AM74" s="29"/>
       <c r="AN74" s="12"/>
     </row>
     <row r="75" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="106"/>
-      <c r="C75" s="101"/>
-      <c r="D75" s="103"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="107"/>
       <c r="E75" s="3" t="s">
         <v>8</v>
       </c>
@@ -5150,7 +5171,7 @@
       <c r="S75" s="3"/>
       <c r="T75" s="68"/>
       <c r="U75" s="3"/>
-      <c r="V75" s="78"/>
+      <c r="V75" s="74"/>
       <c r="W75" s="68"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3"/>
@@ -5166,14 +5187,14 @@
       <c r="AI75" s="68"/>
       <c r="AJ75" s="3"/>
       <c r="AK75" s="12"/>
-      <c r="AL75" s="89"/>
+      <c r="AL75" s="135"/>
       <c r="AM75" s="29"/>
       <c r="AN75" s="12"/>
     </row>
     <row r="76" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="106"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="103"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="107"/>
       <c r="E76" s="3" t="s">
         <v>9</v>
       </c>
@@ -5193,7 +5214,7 @@
       <c r="S76" s="3"/>
       <c r="T76" s="68"/>
       <c r="U76" s="3"/>
-      <c r="V76" s="78"/>
+      <c r="V76" s="74"/>
       <c r="W76" s="68"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3"/>
@@ -5209,14 +5230,14 @@
       <c r="AI76" s="68"/>
       <c r="AJ76" s="3"/>
       <c r="AK76" s="12"/>
-      <c r="AL76" s="89"/>
+      <c r="AL76" s="135"/>
       <c r="AM76" s="29"/>
       <c r="AN76" s="12"/>
     </row>
     <row r="77" spans="2:40" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="106"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="103"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="107"/>
       <c r="E77" s="3" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +5257,7 @@
       <c r="S77" s="3"/>
       <c r="T77" s="68"/>
       <c r="U77" s="3"/>
-      <c r="V77" s="78"/>
+      <c r="V77" s="74"/>
       <c r="W77" s="68"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3"/>
@@ -5252,35 +5273,35 @@
       <c r="AI77" s="68"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="12"/>
-      <c r="AL77" s="89"/>
+      <c r="AL77" s="135"/>
       <c r="AM77" s="29"/>
       <c r="AN77" s="12"/>
     </row>
     <row r="78" spans="2:40" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="107"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="104"/>
+      <c r="B78" s="100"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="108"/>
       <c r="E78" s="13" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
       <c r="H78" s="13"/>
-      <c r="I78" s="76"/>
+      <c r="I78" s="72"/>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
       <c r="L78" s="13"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
-      <c r="P78" s="76"/>
+      <c r="P78" s="72"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
-      <c r="T78" s="76"/>
+      <c r="T78" s="72"/>
       <c r="U78" s="13"/>
-      <c r="V78" s="79"/>
-      <c r="W78" s="76"/>
+      <c r="V78" s="75"/>
+      <c r="W78" s="72"/>
       <c r="X78" s="13"/>
       <c r="Y78" s="13"/>
       <c r="Z78" s="13"/>
@@ -5292,28 +5313,41 @@
       <c r="AF78" s="13"/>
       <c r="AG78" s="13"/>
       <c r="AH78" s="13"/>
-      <c r="AI78" s="76"/>
+      <c r="AI78" s="72"/>
       <c r="AJ78" s="13"/>
       <c r="AK78" s="14"/>
-      <c r="AL78" s="90"/>
+      <c r="AL78" s="136"/>
       <c r="AM78" s="30"/>
       <c r="AN78" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="X5:AB5"/>
-    <mergeCell ref="AA42:AG42"/>
-    <mergeCell ref="F68:J68"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="V11:V15"/>
-    <mergeCell ref="V22:V26"/>
-    <mergeCell ref="X16:AD16"/>
-    <mergeCell ref="Q16:W16"/>
-    <mergeCell ref="B68:B78"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="AL57:AL78"/>
+    <mergeCell ref="B3:E4"/>
+    <mergeCell ref="B5:B15"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="C6:C15"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:D15"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B16:B26"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="C17:C26"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="B31:B41"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C32:C41"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:D41"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="I37:I41"/>
     <mergeCell ref="B55:E56"/>
     <mergeCell ref="B57:B67"/>
     <mergeCell ref="C57:E57"/>
@@ -5330,34 +5364,21 @@
     <mergeCell ref="C58:C67"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="D59:D67"/>
+    <mergeCell ref="B68:B78"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:D78"/>
+    <mergeCell ref="X5:AB5"/>
+    <mergeCell ref="AA42:AG42"/>
+    <mergeCell ref="F68:J68"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="V11:V15"/>
+    <mergeCell ref="V22:V26"/>
+    <mergeCell ref="X16:AD16"/>
+    <mergeCell ref="Q16:W16"/>
     <mergeCell ref="F31:J31"/>
     <mergeCell ref="K31:N31"/>
-    <mergeCell ref="C32:C41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:D41"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="B31:B41"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="AL57:AL78"/>
-    <mergeCell ref="B3:E4"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="C6:C15"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:D15"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B16:B26"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="C17:C26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
